--- a/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
+++ b/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ISO_Common\WERB\NIST Publication Series\Crossref Metadata\TechPubs2HTML\Master lists\PREPRINTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{559CDBEF-BCB8-4DFF-ACD8-EC520582AF39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3511BFB2-2B3C-47D1-BC3C-988B1DCFBA1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="4188"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4416"/>
   </bookViews>
   <sheets>
     <sheet name="PREPRINT_DOIMETADATA_MASTER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>DOI Created</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>DOI of Final</t>
-  </si>
-  <si>
     <t>Year Published</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>DOI</t>
   </si>
   <si>
-    <t>DURL</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2018-09-19T20:18:29Z</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
     <t>2018-10-31T13:29:47Z</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>Proposed Standard Terminology for Robotic Hands and Associated Performance Metrics</t>
   </si>
   <si>
@@ -244,25 +241,79 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.1234-draft.pdf</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>SPO</t>
-  </si>
-  <si>
-    <t>ITL</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>SP (general)</t>
-  </si>
-  <si>
-    <t>SP 800</t>
+    <t xml:space="preserve">   2019-05-28T10:46:36Z</t>
+  </si>
+  <si>
+    <t>2019-05-28T10:46:36Z</t>
+  </si>
+  <si>
+    <t>Cybersecurity Framework Manufacturing Profile Low Security Level Example Implementations GuideVolume 1 - General Implementation Guidance</t>
+  </si>
+  <si>
+    <t>Cichonski, Jeff</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8183A-1-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8183A-1-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-05-28T10:46:39Z</t>
+  </si>
+  <si>
+    <t>Cybersecurity Framework Manufacturing Profile Low Security Level Example Implementations GuideVolume 2 - Process-based Manufacturing System Use Case</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8183A-2-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8183A-2-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-05-28T10:46:40Z</t>
+  </si>
+  <si>
+    <t>Cybersecurity Framework Manufacturing Profile Low Security Level Example Implementations GuideVolume 3 - Discrete-based Manufacturing System Use Case</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8183A-3-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8183A-3-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2019-04-25T16:08:24Z</t>
+  </si>
+  <si>
+    <t>2019-04-25T16:08:25Z</t>
+  </si>
+  <si>
+    <t>Randomness Beacon Format 2.0</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8213-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8213-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2019-07-02T14:07:09Z</t>
+  </si>
+  <si>
+    <t>2019-07-02T14:07:12Z</t>
+  </si>
+  <si>
+    <t>Guide to IPsec VPNsRevision 1</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-77r1-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-77r1-draft.pdf</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -1103,18 +1154,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:C12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,94 +1188,85 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
         <v>2018</v>
       </c>
-      <c r="F2">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>2018</v>
       </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>2018</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1236,62 +1275,56 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>2018</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>2018</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -1300,30 +1333,27 @@
         <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>2018</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -1332,30 +1362,27 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>2019</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -1364,30 +1391,27 @@
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>2019</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
@@ -1396,30 +1420,27 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>59</v>
@@ -1428,30 +1449,27 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
@@ -1460,42 +1478,172 @@
         <v>66</v>
       </c>
       <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>2018</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="E12">
-        <v>2018</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
+++ b/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ISO_Common\WERB\NIST Publication Series\Crossref Metadata\TechPubs2HTML\Master lists\PREPRINTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3511BFB2-2B3C-47D1-BC3C-988B1DCFBA1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA026398-7489-4DBF-9A77-9174A7EFE1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="PREPRINT_DOIMETADATA_MASTER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
   <si>
     <t>DOI Created</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DOI</t>
   </si>
   <si>
-    <t xml:space="preserve">   2018-09-19T20:18:29Z</t>
+    <t>DURL</t>
   </si>
   <si>
     <t>2018-09-19T20:20:59Z</t>
@@ -67,9 +67,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8225-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2018-09-19T20:22:44Z</t>
-  </si>
-  <si>
     <t>2018-09-19T20:22:44Z</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8228-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2018-10-31T13:29:46Z</t>
-  </si>
-  <si>
     <t>2018-10-31T13:29:47Z</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.1227-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2018-11-29T14:15:32Z</t>
-  </si>
-  <si>
     <t>2018-11-29T14:15:33Z</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8196-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2018-12-12T20:35:14Z</t>
-  </si>
-  <si>
     <t>2018-12-14T20:10:59Z</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-189-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-02-12T20:57:41Z</t>
-  </si>
-  <si>
     <t>2019-02-12T20:57:42Z</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-205-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-02-28T14:21:48Z</t>
-  </si>
-  <si>
     <t>2019-02-28T14:21:48Z</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-38Gr1-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-03-06T15:04:27Z</t>
-  </si>
-  <si>
     <t>2019-03-06T15:04:27Z</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-133r1-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-03-25T15:41:08Z</t>
-  </si>
-  <si>
     <t>2019-03-25T15:41:09Z</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-204-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-04-08T15:08:05Z</t>
-  </si>
-  <si>
     <t>2019-04-08T15:08:05Z</t>
   </si>
   <si>
@@ -241,9 +214,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.1234-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-05-28T10:46:36Z</t>
-  </si>
-  <si>
     <t>2019-05-28T10:46:36Z</t>
   </si>
   <si>
@@ -283,9 +253,6 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8183A-3-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-04-25T16:08:24Z</t>
-  </si>
-  <si>
     <t>2019-04-25T16:08:25Z</t>
   </si>
   <si>
@@ -298,10 +265,7 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8213-draft.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">   2019-07-02T14:07:09Z</t>
-  </si>
-  <si>
-    <t>2019-07-02T14:07:12Z</t>
+    <t>2019-09-24T01:43:44Z</t>
   </si>
   <si>
     <t>Guide to IPsec VPNsRevision 1</t>
@@ -313,7 +277,220 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-77r1-draft.pdf</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>2019-09-20T01:42:39Z</t>
+  </si>
+  <si>
+    <t>Guideline for Using Cryptographic Standards in the Federal Government:Cryptographic Mechanisms, Revision 1</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-175Br1-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-175Br1-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-09-25T10:14:36Z</t>
+  </si>
+  <si>
+    <t>CSWP</t>
+  </si>
+  <si>
+    <t>A Taxonomic Approach to Understanding Emerging Blockchain Identity Management Systems</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.CSWP.07092019-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/CSWP/NIST.CSWP.07092019-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-09-24T12:40:07Z</t>
+  </si>
+  <si>
+    <t>Core Cybersecurity Features Baseline for Securable IoT Devices: A Starting Point for IoT Device Manufacturers</t>
+  </si>
+  <si>
+    <t>Fagan, Michael; Megas, Katerina N.; Scarfone, Karen; Smith, Matthew</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8259-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8259-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-09-23T14:14:46Z</t>
+  </si>
+  <si>
+    <t>Zero Trust Architecture</t>
+  </si>
+  <si>
+    <t>Rose, Scott; Borchert, Oliver; Mitchell, Stu; Connelly, Sean</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-207-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-207-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-10-01T14:09:47Z</t>
+  </si>
+  <si>
+    <t>Security Review of Consumer Home 16 Internet of Things (IoT) Products</t>
+  </si>
+  <si>
+    <t>Fagan, Michael; Yang, Mary; Tan, Allen; Randolph, Lora; Scarfone, Karen</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8267-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8267-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-10-08T20:37:34Z</t>
+  </si>
+  <si>
+    <t>Recommendation for Key ManagementPart 1 - General</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-57pt1r5-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-57pt1r5-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-10-30T14:32:41Z</t>
+  </si>
+  <si>
+    <t>A taxonomy and terminology of adversarial machine learning</t>
+  </si>
+  <si>
+    <t>Tabassi, Elham; Burns, Kevin J.; Hadjimichael, Michael; Molina-Markham, Andres D.; Sexton, Julian T.</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8269-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8269-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-10-30T17:12:40Z</t>
+  </si>
+  <si>
+    <t>Recommendations for Discrete-Logarithm Based Cryptography:Elliptic Curve Domain Parameters</t>
+  </si>
+  <si>
+    <t>Regenscheid, Andrew</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-186-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-186-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-11-08T20:15:13Z</t>
+  </si>
+  <si>
+    <t>Towards NIST Standards for Threshold Schemes for Cryptographic PrimitivesA Preliminary Roadma</t>
+  </si>
+  <si>
+    <t>Brandão, Luís T. A. N.; Davidson, Michael; Vassilev, Apostol</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8214A-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8214A-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-11-20T14:07:59Z</t>
+  </si>
+  <si>
+    <t>Automation Support for Security Control Assessments: Software Vulnerability Management</t>
+  </si>
+  <si>
+    <t>Dempsey, Kelley; Eavy, Paul; Moore, George; Takamura, Eduardo</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8011-4-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8011-4-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:36Z</t>
+  </si>
+  <si>
+    <t>Recommendation for Stateful Hash-Based Signature Schemes</t>
+  </si>
+  <si>
+    <t>Cooper, David A.</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-208-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-208-draft.pdf</t>
+  </si>
+  <si>
+    <t>2019-10-17T19:49:05Z</t>
+  </si>
+  <si>
+    <t>Resilient Interdomain Traffic Exchange3 BGP Security and DDoS Mitigation</t>
+  </si>
+  <si>
+    <t>Sriram, Kotikalapudi; Montgomery, Douglas</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-189-draft2</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-189-draft2.pdf</t>
+  </si>
+  <si>
+    <t>2018-09-19T20:18:29Z</t>
+  </si>
+  <si>
+    <t>2018-10-31T13:29:46Z</t>
+  </si>
+  <si>
+    <t>2018-11-29T14:15:32Z</t>
+  </si>
+  <si>
+    <t>2018-12-12T20:35:14Z</t>
+  </si>
+  <si>
+    <t>2019-02-12T20:57:41Z</t>
+  </si>
+  <si>
+    <t>2019-03-25T15:41:08Z</t>
+  </si>
+  <si>
+    <t>2019-04-25T16:08:24Z</t>
+  </si>
+  <si>
+    <t>2019-07-02T14:07:09Z</t>
+  </si>
+  <si>
+    <t>2019-07-02T19:33:56Z</t>
+  </si>
+  <si>
+    <t>2019-07-09T13:13:43Z</t>
+  </si>
+  <si>
+    <t>2019-07-30T14:04:53Z</t>
+  </si>
+  <si>
+    <t>2019-10-08T20:37:33Z</t>
+  </si>
+  <si>
+    <t>2019-10-30T14:32:40Z</t>
+  </si>
+  <si>
+    <t>2019-10-30T17:12:39Z</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,12 +1365,12 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1225,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1237,27 +1414,27 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4">
         <v>2018</v>
@@ -1266,27 +1443,27 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -1295,24 +1472,24 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1324,27 +1501,27 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -1353,27 +1530,27 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -1382,27 +1559,27 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -1411,27 +1588,27 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -1440,27 +1617,27 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1469,27 +1646,27 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -1498,21 +1675,21 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1524,24 +1701,24 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1553,24 +1730,24 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1582,24 +1759,24 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
         <v>76</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1611,24 +1788,24 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>2019</v>
@@ -1637,13 +1814,471 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G20" t="s">
         <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>2019</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>2019</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>2019</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
+++ b/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ISO_Common\WERB\NIST Publication Series\Crossref Metadata\TechPubs2HTML\Master lists\PREPRINTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA026398-7489-4DBF-9A77-9174A7EFE1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE029A1D-68DD-4268-A82D-F687B9BC0251}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
   <si>
     <t>DOI Created</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Series</t>
   </si>
   <si>
+    <t>DOI of Final</t>
+  </si>
+  <si>
     <t>Year Published</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>DURL</t>
   </si>
   <si>
+    <t xml:space="preserve">   2018-09-19T20:18:29Z</t>
+  </si>
+  <si>
     <t>2018-09-19T20:20:59Z</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8225-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2018-09-19T20:22:44Z</t>
+  </si>
+  <si>
     <t>2018-09-19T20:22:44Z</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8228-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2018-10-31T13:29:46Z</t>
+  </si>
+  <si>
     <t>2018-10-31T13:29:47Z</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.1227-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2018-11-29T14:15:32Z</t>
+  </si>
+  <si>
     <t>2018-11-29T14:15:33Z</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2018/NIST.IR.8196-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2018-12-12T20:35:14Z</t>
+  </si>
+  <si>
     <t>2018-12-14T20:10:59Z</t>
   </si>
   <si>
@@ -142,6 +160,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-189-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-02-12T20:57:41Z</t>
+  </si>
+  <si>
     <t>2019-02-12T20:57:42Z</t>
   </si>
   <si>
@@ -157,6 +178,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-205-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-02-28T14:21:48Z</t>
+  </si>
+  <si>
     <t>2019-02-28T14:21:48Z</t>
   </si>
   <si>
@@ -172,6 +196,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-38Gr1-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-03-06T15:04:27Z</t>
+  </si>
+  <si>
     <t>2019-03-06T15:04:27Z</t>
   </si>
   <si>
@@ -187,6 +214,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-133r1-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-03-25T15:41:08Z</t>
+  </si>
+  <si>
     <t>2019-03-25T15:41:09Z</t>
   </si>
   <si>
@@ -202,6 +232,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-204-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-04-08T15:08:05Z</t>
+  </si>
+  <si>
     <t>2019-04-08T15:08:05Z</t>
   </si>
   <si>
@@ -214,6 +247,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.1234-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-05-28T10:46:36Z</t>
+  </si>
+  <si>
     <t>2019-05-28T10:46:36Z</t>
   </si>
   <si>
@@ -253,6 +289,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8183A-3-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-04-25T16:08:24Z</t>
+  </si>
+  <si>
     <t>2019-04-25T16:08:25Z</t>
   </si>
   <si>
@@ -265,6 +304,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8213-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-07-02T14:07:09Z</t>
+  </si>
+  <si>
     <t>2019-09-24T01:43:44Z</t>
   </si>
   <si>
@@ -277,6 +319,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-77r1-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-07-02T19:33:56Z</t>
+  </si>
+  <si>
     <t>2019-09-20T01:42:39Z</t>
   </si>
   <si>
@@ -289,6 +334,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-175Br1-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-07-09T13:13:43Z</t>
+  </si>
+  <si>
     <t>2019-09-25T10:14:36Z</t>
   </si>
   <si>
@@ -304,6 +352,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/CSWP/NIST.CSWP.07092019-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-07-30T14:04:53Z</t>
+  </si>
+  <si>
     <t>2019-09-24T12:40:07Z</t>
   </si>
   <si>
@@ -319,6 +370,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8259-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-09-23T14:14:46Z</t>
+  </si>
+  <si>
     <t>2019-09-23T14:14:46Z</t>
   </si>
   <si>
@@ -334,6 +388,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-207-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-10-01T14:09:47Z</t>
+  </si>
+  <si>
     <t>2019-10-01T14:09:47Z</t>
   </si>
   <si>
@@ -349,6 +406,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8267-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-10-08T20:37:33Z</t>
+  </si>
+  <si>
     <t>2019-10-08T20:37:34Z</t>
   </si>
   <si>
@@ -361,6 +421,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-57pt1r5-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-10-30T14:32:40Z</t>
+  </si>
+  <si>
     <t>2019-10-30T14:32:41Z</t>
   </si>
   <si>
@@ -376,6 +439,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8269-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-10-30T17:12:39Z</t>
+  </si>
+  <si>
     <t>2019-10-30T17:12:40Z</t>
   </si>
   <si>
@@ -391,6 +457,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-186-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-11-08T20:15:13Z</t>
+  </si>
+  <si>
     <t>2019-11-08T20:15:13Z</t>
   </si>
   <si>
@@ -406,6 +475,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8214A-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-11-20T14:07:59Z</t>
+  </si>
+  <si>
     <t>2019-11-20T14:07:59Z</t>
   </si>
   <si>
@@ -421,6 +493,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2019/NIST.IR.8011-4-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-12-11T20:00:36Z</t>
+  </si>
+  <si>
     <t>2019-12-11T20:00:36Z</t>
   </si>
   <si>
@@ -436,6 +511,9 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-208-draft.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">   2019-10-17T19:49:05Z</t>
+  </si>
+  <si>
     <t>2019-10-17T19:49:05Z</t>
   </si>
   <si>
@@ -451,46 +529,19 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-189-draft2.pdf</t>
   </si>
   <si>
-    <t>2018-09-19T20:18:29Z</t>
-  </si>
-  <si>
-    <t>2018-10-31T13:29:46Z</t>
-  </si>
-  <si>
-    <t>2018-11-29T14:15:32Z</t>
-  </si>
-  <si>
-    <t>2018-12-12T20:35:14Z</t>
-  </si>
-  <si>
-    <t>2019-02-12T20:57:41Z</t>
-  </si>
-  <si>
-    <t>2019-03-25T15:41:08Z</t>
-  </si>
-  <si>
-    <t>2019-04-25T16:08:24Z</t>
-  </si>
-  <si>
-    <t>2019-07-02T14:07:09Z</t>
-  </si>
-  <si>
-    <t>2019-07-02T19:33:56Z</t>
-  </si>
-  <si>
-    <t>2019-07-09T13:13:43Z</t>
-  </si>
-  <si>
-    <t>2019-07-30T14:04:53Z</t>
-  </si>
-  <si>
-    <t>2019-10-08T20:37:33Z</t>
-  </si>
-  <si>
-    <t>2019-10-30T14:32:40Z</t>
-  </si>
-  <si>
-    <t>2019-10-30T17:12:39Z</t>
+    <t xml:space="preserve">      2020-01-06T20:27:04Z</t>
+  </si>
+  <si>
+    <t>2020-01-07T14:07:05Z</t>
+  </si>
+  <si>
+    <t>Recommendations for IoT Device 2 Manufacturers:Foundational Activities and Core Device Cybersecurity 4 Capability Baseline</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8259-draft2</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8259-draft2.pdf</t>
   </si>
 </sst>
 </file>
@@ -1331,15 +1382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,918 +1416,950 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2019</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2019</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2019</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2019</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2019</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>2019</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <v>2019</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>2019</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2018</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2019</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>2019</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>2019</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>2019</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>2019</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>2019</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>2019</v>
+      </c>
+      <c r="F33">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>2018</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2019</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>2019</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>2018</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>2019</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>2019</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>2019</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>2019</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>2019</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>2019</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19">
-        <v>2019</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>2019</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>2019</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>2019</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E34">
+        <v>2020</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>2019</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>2019</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26">
-        <v>2018</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>2019</v>
-      </c>
-      <c r="E27">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>2019</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>2019</v>
-      </c>
-      <c r="E29">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>2019</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>2019</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>2019</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>2019</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
+      <c r="I34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
+++ b/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ISO_Common\WERB\NIST Publication Series\Crossref Metadata\TechPubs2HTML\Master lists\PREPRINTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE029A1D-68DD-4268-A82D-F687B9BC0251}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADDF145-B151-4560-87D7-023AEE05CD46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="210">
   <si>
     <t>DOI Created</t>
   </si>
@@ -58,9 +58,6 @@
     <t>2018-09-19T20:20:59Z</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>NIST Scientific Foundation Reviews</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>2018-10-31T13:29:47Z</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>Proposed Standard Terminology for Robotic Hands and Associated Performance Metrics</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>2019-09-25T10:14:36Z</t>
   </si>
   <si>
-    <t>CSWP</t>
-  </si>
-  <si>
     <t>A Taxonomic Approach to Understanding Emerging Blockchain Identity Management Systems</t>
   </si>
   <si>
@@ -424,7 +415,7 @@
     <t xml:space="preserve">   2019-10-30T14:32:40Z</t>
   </si>
   <si>
-    <t>2019-10-30T14:32:41Z</t>
+    <t>2019-12-31T19:19:26Z</t>
   </si>
   <si>
     <t>A taxonomy and terminology of adversarial machine learning</t>
@@ -478,7 +469,7 @@
     <t xml:space="preserve">   2019-11-20T14:07:59Z</t>
   </si>
   <si>
-    <t>2019-11-20T14:07:59Z</t>
+    <t>2019-12-31T19:19:28Z</t>
   </si>
   <si>
     <t>Automation Support for Security Control Assessments: Software Vulnerability Management</t>
@@ -529,7 +520,7 @@
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-189-draft2.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">      2020-01-06T20:27:04Z</t>
+    <t xml:space="preserve">   2020-01-06T20:27:04Z</t>
   </si>
   <si>
     <t>2020-01-07T14:07:05Z</t>
@@ -542,6 +533,123 @@
   </si>
   <si>
     <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8259-draft2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-01-21T19:30:36Z</t>
+  </si>
+  <si>
+    <t>2020-01-22T12:36:57Z</t>
+  </si>
+  <si>
+    <t>Security and Privacy Controls for Information Systems and Organizations</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-53r5-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-53r5-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-01-24T20:49:59Z</t>
+  </si>
+  <si>
+    <t>2020-01-31T15:35:16Z</t>
+  </si>
+  <si>
+    <t>National Cybersecurity Online Informative References (OLIR) Program:Guidance for OLIR Users and Developers</t>
+  </si>
+  <si>
+    <t>Keller, Nicole; Quinn, Stephen; Scarfone, Karen; Smith, Matthew; Johnson, Vincent</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8278-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8278-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-01-17T18:47:16Z</t>
+  </si>
+  <si>
+    <t>2020-01-17T18:47:18Z</t>
+  </si>
+  <si>
+    <t>Building Secure Microservices-based Applications Using Service-Mesh Architecture</t>
+  </si>
+  <si>
+    <t>Chandramouli, Ramaswamy; Butcher, Zack</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-204A-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-204A-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-01-13T14:34:35Z</t>
+  </si>
+  <si>
+    <t>2020-01-13T14:34:35Z</t>
+  </si>
+  <si>
+    <t>Assessing Information Security Continuous Monitoring (ISCM) Programs:Developing an ISCM Program Assessment</t>
+  </si>
+  <si>
+    <t>Dempsey, Kelley; Pillitteri, Victoria Yan; Baer, Chad; Niemeyer, Robert; Rudman, Ron; Urban, Susan</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-137A-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-137A-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-02-03T15:28:49Z</t>
+  </si>
+  <si>
+    <t>2020-02-03T15:28:49Z</t>
+  </si>
+  <si>
+    <t>Key Practices in Cyber Supply Chain Risk Management: Observations from Industry</t>
+  </si>
+  <si>
+    <t>Boyens, Jon M.</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8276-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8276-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-02-10T14:20:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-10T14:20:00Z</t>
+  </si>
+  <si>
+    <t>National Vulnerability Database (NVD) Metadata Submission Guidelines for Common Vulnerabilities and Exposures (CVE) Numbering Authorities (CNAs) and Authorized Data Publishers</t>
+  </si>
+  <si>
+    <t>Byers, Robert; Waltermire, David; Turner, Christopher</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8246-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8246-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-02-13T13:53:43Z</t>
+  </si>
+  <si>
+    <t>2020-02-13T13:53:56Z</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-207-draft2</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-207-draft2.pdf</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1427,9 +1535,6 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2">
         <v>2018</v>
       </c>
@@ -1437,27 +1542,24 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>2018</v>
@@ -1466,27 +1568,24 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2018</v>
@@ -1495,27 +1594,24 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>2018</v>
@@ -1524,27 +1620,24 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -1553,27 +1646,24 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>2018</v>
@@ -1582,27 +1672,24 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>2019</v>
@@ -1611,27 +1698,24 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>2019</v>
@@ -1640,27 +1724,24 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>2019</v>
@@ -1669,27 +1750,24 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>2019</v>
@@ -1698,27 +1776,24 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>2018</v>
@@ -1727,24 +1802,21 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
         <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>2019</v>
@@ -1753,27 +1825,24 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>2019</v>
@@ -1782,27 +1851,24 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>2019</v>
@@ -1811,27 +1877,24 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <v>2019</v>
@@ -1840,24 +1903,21 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
         <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>2019</v>
@@ -1866,24 +1926,21 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
         <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>2019</v>
@@ -1892,24 +1949,21 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
         <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>2019</v>
@@ -1918,24 +1972,21 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>2019</v>
@@ -1944,27 +1995,24 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>2019</v>
@@ -1973,27 +2021,24 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
         <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>2019</v>
@@ -2002,27 +2047,24 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" t="s">
         <v>124</v>
-      </c>
-      <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>2019</v>
@@ -2031,27 +2073,24 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E24">
         <v>2019</v>
@@ -2060,27 +2099,24 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
         <v>135</v>
-      </c>
-      <c r="H24" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>2019</v>
@@ -2089,27 +2125,24 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" t="s">
         <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>2018</v>
@@ -2118,27 +2151,24 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
         <v>42</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>43</v>
-      </c>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="E27">
         <v>2019</v>
@@ -2147,27 +2177,24 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
         <v>147</v>
-      </c>
-      <c r="H27" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E28">
         <v>2019</v>
@@ -2176,27 +2203,24 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" t="s">
         <v>153</v>
-      </c>
-      <c r="H28" t="s">
-        <v>154</v>
-      </c>
-      <c r="I28" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>2019</v>
@@ -2205,27 +2229,24 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
         <v>159</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" t="s">
-        <v>161</v>
-      </c>
-      <c r="J29" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>2019</v>
@@ -2234,27 +2255,24 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
         <v>77</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>2019</v>
@@ -2263,27 +2281,24 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
         <v>82</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>2019</v>
@@ -2292,27 +2307,24 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" t="s">
         <v>86</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E33">
         <v>2019</v>
@@ -2321,27 +2333,24 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
         <v>165</v>
-      </c>
-      <c r="H33" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -2350,16 +2359,195 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>171</v>
       </c>
-      <c r="H34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="B35" t="s">
         <v>172</v>
       </c>
-      <c r="J34" t="s">
+      <c r="E35">
+        <v>2020</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36">
+        <v>2020</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37">
+        <v>2020</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" t="s">
+        <v>186</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39">
+        <v>2020</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40">
+        <v>2020</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41">
+        <v>2020</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
+++ b/Master lists/PREPRINTS/PREPRINT_DOIMETADATA_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ISO_Common\WERB\NIST Publication Series\Crossref Metadata\TechPubs2HTML\Master lists\PREPRINTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADDF145-B151-4560-87D7-023AEE05CD46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81854417-0B8E-4E83-90F4-A2195C485956}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1044" yWindow="1044" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="PREPRINT_DOIMETADATA_MASTER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="225">
   <si>
     <t>DOI Created</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2018-09-19T20:20:59Z</t>
   </si>
   <si>
+    <t>IR</t>
+  </si>
+  <si>
     <t>NIST Scientific Foundation Reviews</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>2018-10-31T13:29:47Z</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>Proposed Standard Terminology for Robotic Hands and Associated Performance Metrics</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>2018-12-14T20:10:59Z</t>
   </si>
   <si>
+    <t>SP800</t>
+  </si>
+  <si>
     <t>Secure Interdomain Traffic Exchange</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
     <t>2019-09-25T10:14:36Z</t>
   </si>
   <si>
+    <t>CSWP</t>
+  </si>
+  <si>
     <t>A Taxonomic Approach to Understanding Emerging Blockchain Identity Management Systems</t>
   </si>
   <si>
@@ -650,6 +662,39 @@
   </si>
   <si>
     <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-207-draft2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-03-04T14:31:40Z</t>
+  </si>
+  <si>
+    <t>2020-03-04T14:31:41Z</t>
+  </si>
+  <si>
+    <t>Cybersecurity Framework Version 1.1 Manufacturing Profile</t>
+  </si>
+  <si>
+    <t>Stouffer, Keith; Zimmerman, Timothy; Tang, CheeYee; Lubell, Joshua; Cichonski, Jeffrey; Pease, Michael; McCarthy, John</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.IR.8183r1-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/ir/2020/NIST.IR.8183r1-draft.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2020-03-05T14:08:23Z</t>
+  </si>
+  <si>
+    <t>2020-03-05T14:08:23Z</t>
+  </si>
+  <si>
+    <t>Barker, Elaine; Roginsky, Allen; Davis, Richard</t>
+  </si>
+  <si>
+    <t>10.6028/NIST.SP.800-133r2-draft</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-133r2-draft.pdf</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1535,6 +1580,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2">
         <v>2018</v>
       </c>
@@ -1542,24 +1590,27 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2018</v>
@@ -1568,24 +1619,27 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2018</v>
@@ -1594,24 +1648,27 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2018</v>
@@ -1620,24 +1677,27 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -1646,24 +1706,27 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="E7">
         <v>2018</v>
@@ -1672,24 +1735,27 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2019</v>
@@ -1698,24 +1764,27 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="E9">
         <v>2019</v>
@@ -1724,24 +1793,27 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
       </c>
       <c r="E10">
         <v>2019</v>
@@ -1750,24 +1822,27 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="E11">
         <v>2019</v>
@@ -1776,24 +1851,27 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2018</v>
@@ -1802,21 +1880,24 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="E13">
         <v>2019</v>
@@ -1825,24 +1906,27 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
       <c r="E14">
         <v>2019</v>
@@ -1851,24 +1935,27 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
       <c r="E15">
         <v>2019</v>
@@ -1877,24 +1964,27 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
       <c r="E16">
         <v>2019</v>
@@ -1903,21 +1993,24 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
       <c r="E17">
         <v>2019</v>
@@ -1926,21 +2019,24 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
       </c>
       <c r="E18">
         <v>2019</v>
@@ -1949,21 +2045,24 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
       </c>
       <c r="E19">
         <v>2019</v>
@@ -1972,21 +2071,24 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
       </c>
       <c r="E20">
         <v>2019</v>
@@ -1995,24 +2097,27 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
       <c r="E21">
         <v>2019</v>
@@ -2021,24 +2126,27 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
       </c>
       <c r="E22">
         <v>2019</v>
@@ -2047,24 +2155,27 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
       </c>
       <c r="E23">
         <v>2019</v>
@@ -2073,24 +2184,27 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
       </c>
       <c r="E24">
         <v>2019</v>
@@ -2099,24 +2213,27 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
       </c>
       <c r="E25">
         <v>2019</v>
@@ -2125,24 +2242,27 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
       </c>
       <c r="E26">
         <v>2018</v>
@@ -2151,24 +2271,27 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
       </c>
       <c r="E27">
         <v>2019</v>
@@ -2177,24 +2300,27 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
       <c r="E28">
         <v>2019</v>
@@ -2203,24 +2329,27 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
       <c r="E29">
         <v>2019</v>
@@ -2229,24 +2358,27 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
       </c>
       <c r="E30">
         <v>2019</v>
@@ -2255,24 +2387,27 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
       </c>
       <c r="E31">
         <v>2019</v>
@@ -2281,24 +2416,27 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
       </c>
       <c r="E32">
         <v>2019</v>
@@ -2307,24 +2445,27 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
       </c>
       <c r="E33">
         <v>2019</v>
@@ -2333,24 +2474,27 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -2359,24 +2503,27 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
       </c>
       <c r="E35">
         <v>2020</v>
@@ -2385,21 +2532,24 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -2408,24 +2558,27 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -2434,24 +2587,27 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J37" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
       </c>
       <c r="E38">
         <v>2020</v>
@@ -2460,24 +2616,27 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
       </c>
       <c r="E39">
         <v>2020</v>
@@ -2486,24 +2645,27 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I39" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
       </c>
       <c r="E40">
         <v>2020</v>
@@ -2512,24 +2674,27 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I40" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
       </c>
       <c r="E41">
         <v>2020</v>
@@ -2538,16 +2703,74 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J41" t="s">
-        <v>209</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>2020</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>2020</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>222</v>
+      </c>
+      <c r="I43" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
